--- a/画面設計/【画面設計】05_新規登録画面.xlsx
+++ b/画面設計/【画面設計】05_新規登録画面.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>（実際にメールとかは送らなくてよい）一意にしたいだけ。</t>
+  </si>
+  <si>
+    <t>←権限の付与の登録ラジオボタン（0:無、1:有）</t>
   </si>
   <si>
     <t>2.【機能概要】</t>
@@ -2539,7 +2542,9 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -2838,7 +2843,7 @@
     <row r="25" ht="16.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
@@ -2975,7 +2980,7 @@
     <row r="30" ht="16.5" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -3005,13 +3010,13 @@
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -3151,7 +3156,7 @@
     <row r="36" ht="16.5" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -3181,10 +3186,10 @@
     <row r="37" ht="16.5" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D37" s="20"/>
       <c r="E37" s="6"/>
@@ -3381,14 +3386,14 @@
     <row r="44" ht="16.5" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -3413,14 +3418,14 @@
     <row r="45" ht="16.5" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -3445,30 +3450,30 @@
     <row r="46" ht="16.5" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D46" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H46" s="31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I46" s="31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J46" s="31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K46" s="31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -3545,14 +3550,14 @@
     <row r="49" ht="16.5" customHeight="1">
       <c r="A49" s="24"/>
       <c r="B49" s="49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49" s="49"/>
       <c r="D49" s="49"/>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
       <c r="G49" s="49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H49" s="49"/>
       <c r="I49" s="49"/>
@@ -3577,30 +3582,30 @@
     <row r="50" ht="16.5" customHeight="1">
       <c r="A50" s="50"/>
       <c r="B50" s="51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="50"/>
       <c r="G50" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H50" s="51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I50" s="51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J50" s="51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K50" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L50" s="24"/>
       <c r="M50" s="24"/>
@@ -3761,30 +3766,30 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="50"/>
       <c r="B56" s="51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D56" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E56" s="24"/>
       <c r="F56" s="50"/>
       <c r="G56" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H56" s="51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I56" s="51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J56" s="51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K56" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L56" s="24"/>
       <c r="M56" s="24"/>
@@ -3861,14 +3866,14 @@
     <row r="59" ht="21.0" customHeight="1">
       <c r="A59" s="24"/>
       <c r="B59" s="49" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C59" s="49"/>
       <c r="D59" s="49"/>
       <c r="E59" s="24"/>
       <c r="F59" s="24"/>
       <c r="G59" s="49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H59" s="49"/>
       <c r="I59" s="49"/>
@@ -3893,30 +3898,30 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="50"/>
       <c r="B60" s="51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D60" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E60" s="24"/>
       <c r="F60" s="50"/>
       <c r="G60" s="51" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H60" s="51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I60" s="51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J60" s="51" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K60" s="51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L60" s="24"/>
       <c r="M60" s="24"/>
@@ -29848,7 +29853,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="64"/>
       <c r="B4" s="64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
@@ -29876,10 +29881,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="64"/>

--- a/画面設計/【画面設計】05_新規登録画面.xlsx
+++ b/画面設計/【画面設計】05_新規登録画面.xlsx
@@ -76,7 +76,7 @@
   </si>
   <si>
     <t>「01_メニュー画面」より呼ばれてユーザの新規登録を行うことができる画面。
-このユーザ登録によって、CASでの個人管理（カロリー管理やお気に入り管理や体重管理など）などを行うことができる。</t>
+当画面によって、CASでの個人管理（カロリー管理やお気に入り管理や体重管理など）などを行うことができる。</t>
   </si>
   <si>
     <t>3.【前の画面より受け取ったパラメータ】</t>
@@ -2421,7 +2421,7 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
@@ -30588,9 +30588,9 @@
     </row>
   </sheetData>
   <mergeCells count="3">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G31:H31"/>
     <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G28:H28"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/画面設計/【画面設計】05_新規登録画面.xlsx
+++ b/画面設計/【画面設計】05_新規登録画面.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="114">
   <si>
     <t>アプリ課題(2025）</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>ゼラチン　☑️</t>
+  </si>
+  <si>
+    <t>更新</t>
   </si>
   <si>
     <t xml:space="preserve">　ユーザID（メールアドレス）</t>
@@ -30192,7 +30195,7 @@
       <c r="D42" s="80"/>
       <c r="F42" s="79"/>
       <c r="G42" s="90" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="J42" s="80"/>
     </row>
@@ -30204,7 +30207,7 @@
     </row>
     <row r="44">
       <c r="B44" s="87" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D44" s="80"/>
       <c r="F44" s="79"/>
@@ -30213,7 +30216,7 @@
     <row r="45">
       <c r="B45" s="79"/>
       <c r="C45" s="88" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D45" s="80"/>
       <c r="F45" s="79"/>
@@ -30346,7 +30349,7 @@
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="95"/>
       <c r="B4" s="95" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C4" s="95"/>
       <c r="D4" s="95"/>
